--- a/MACCTests/src/data/testData.xlsx
+++ b/MACCTests/src/data/testData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,7 +13,8 @@
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Sheet5" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Test Plan" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="MOCK_DATA" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Test Plan" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="636">
   <si>
     <t>Username</t>
   </si>
@@ -214,6 +215,1671 @@
   </si>
   <si>
     <t>anywhere</t>
+  </si>
+  <si>
+    <t>faucibus</t>
+  </si>
+  <si>
+    <t>Donec dapibus. Duis at velit eu est congue elementum.</t>
+  </si>
+  <si>
+    <t>massa tempor</t>
+  </si>
+  <si>
+    <t>Duis consequat dui nec nisi volutpat eleifend.</t>
+  </si>
+  <si>
+    <t>ac</t>
+  </si>
+  <si>
+    <t>Pellentesque eget nunc.</t>
+  </si>
+  <si>
+    <t>massa</t>
+  </si>
+  <si>
+    <t>Suspendisse potenti.</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>Donec ut mauris eget massa tempor convallis. Nulla neque libero, convallis eget, eleifend luctus, ultricies eu, nibh.</t>
+  </si>
+  <si>
+    <t>ut</t>
+  </si>
+  <si>
+    <t>Nulla nisl. Nunc nisl.</t>
+  </si>
+  <si>
+    <t>convallis</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetuer adipiscing elit.</t>
+  </si>
+  <si>
+    <t>tincidunt</t>
+  </si>
+  <si>
+    <t>Proin eu mi. Nulla ac enim.</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>Donec semper sapien a libero.</t>
+  </si>
+  <si>
+    <t>vivamus</t>
+  </si>
+  <si>
+    <t>quis libero</t>
+  </si>
+  <si>
+    <t>Pellentesque ultrices mattis odio. Donec vitae nisi.</t>
+  </si>
+  <si>
+    <t>odio</t>
+  </si>
+  <si>
+    <t>Integer ac leo. Pellentesque ultrices mattis odio.</t>
+  </si>
+  <si>
+    <t>fermentum justo</t>
+  </si>
+  <si>
+    <t>libero ut</t>
+  </si>
+  <si>
+    <t>Vivamus tortor. Duis mattis egestas metus.</t>
+  </si>
+  <si>
+    <t>arcu</t>
+  </si>
+  <si>
+    <t>scelerisque mauris</t>
+  </si>
+  <si>
+    <t>In hac habitasse platea dictumst.</t>
+  </si>
+  <si>
+    <t>primis</t>
+  </si>
+  <si>
+    <t>Praesent id massa id nisl venenatis lacinia.</t>
+  </si>
+  <si>
+    <t>cursus</t>
+  </si>
+  <si>
+    <t>Aliquam augue quam, sollicitudin vitae, consectetuer eget, rutrum at, lorem.</t>
+  </si>
+  <si>
+    <t>quam fringilla</t>
+  </si>
+  <si>
+    <t>Fusce posuere felis sed lacus. Morbi sem mauris, laoreet ut, rhoncus aliquet, pulvinar sed, nisl.</t>
+  </si>
+  <si>
+    <t>primis in</t>
+  </si>
+  <si>
+    <t>Phasellus sit amet erat. Nulla tempus.</t>
+  </si>
+  <si>
+    <t>augue</t>
+  </si>
+  <si>
+    <t>Donec vitae nisi. Nam ultrices, libero non mattis pulvinar, nulla pede ullamcorper augue, a suscipit nulla elit ac nulla.</t>
+  </si>
+  <si>
+    <t>diam</t>
+  </si>
+  <si>
+    <t>Vestibulum ante ipsum primis in faucibus orci luctus et ultrices posuere cubilia Curae</t>
+  </si>
+  <si>
+    <t> Duis faucibus accumsan odio.</t>
+  </si>
+  <si>
+    <t>sed interdum</t>
+  </si>
+  <si>
+    <t>Nulla suscipit ligula in lacus. Curabitur at ipsum ac tellus semper interdum.</t>
+  </si>
+  <si>
+    <t>in porttitor</t>
+  </si>
+  <si>
+    <t>Morbi non quam nec dui luctus rutrum.</t>
+  </si>
+  <si>
+    <t>ligula in</t>
+  </si>
+  <si>
+    <t>Mauris lacinia sapien quis libero.</t>
+  </si>
+  <si>
+    <t>nam</t>
+  </si>
+  <si>
+    <t>Aliquam erat volutpat. In congue.</t>
+  </si>
+  <si>
+    <t>vulputate</t>
+  </si>
+  <si>
+    <t>Proin leo odio, porttitor id, consequat in, consequat ut, nulla. Sed accumsan felis.</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetuer adipiscing elit. Proin risus.</t>
+  </si>
+  <si>
+    <t>morbi a</t>
+  </si>
+  <si>
+    <t>Morbi vel lectus in quam fringilla rhoncus. Mauris enim leo, rhoncus sed, vestibulum sit amet, cursus id, turpis.</t>
+  </si>
+  <si>
+    <t>ultricies eu</t>
+  </si>
+  <si>
+    <t>Mauris enim leo, rhoncus sed, vestibulum sit amet, cursus id, turpis.</t>
+  </si>
+  <si>
+    <t>ornare</t>
+  </si>
+  <si>
+    <t>Quisque id justo sit amet sapien dignissim vestibulum. Vestibulum ante ipsum primis in faucibus orci luctus et ultrices posuere cubilia Curae</t>
+  </si>
+  <si>
+    <t> Nulla dapibus dolor vel est.</t>
+  </si>
+  <si>
+    <t>Morbi porttitor lorem id ligula.</t>
+  </si>
+  <si>
+    <t>pretium</t>
+  </si>
+  <si>
+    <t>Ut tellus. Nulla ut erat id mauris vulputate elementum.</t>
+  </si>
+  <si>
+    <t>Phasellus sit amet erat.</t>
+  </si>
+  <si>
+    <t>est</t>
+  </si>
+  <si>
+    <t>Nulla ut erat id mauris vulputate elementum.</t>
+  </si>
+  <si>
+    <t>ultrices</t>
+  </si>
+  <si>
+    <t>Praesent blandit lacinia erat. Vestibulum sed magna at nunc commodo placerat.</t>
+  </si>
+  <si>
+    <t>a pede</t>
+  </si>
+  <si>
+    <t>Duis at velit eu est congue elementum.</t>
+  </si>
+  <si>
+    <t>convallis morbi</t>
+  </si>
+  <si>
+    <t>Aliquam erat volutpat.</t>
+  </si>
+  <si>
+    <t>montes</t>
+  </si>
+  <si>
+    <t>Nunc rhoncus dui vel sem.</t>
+  </si>
+  <si>
+    <t>Praesent blandit. Nam nulla.</t>
+  </si>
+  <si>
+    <t>curae donec</t>
+  </si>
+  <si>
+    <t>Maecenas pulvinar lobortis est. Phasellus sit amet erat.</t>
+  </si>
+  <si>
+    <t>consequat</t>
+  </si>
+  <si>
+    <t>Cras non velit nec nisi vulputate nonummy.</t>
+  </si>
+  <si>
+    <t>id massa</t>
+  </si>
+  <si>
+    <t>Vivamus vel nulla eget eros elementum pellentesque. Quisque porta volutpat erat.</t>
+  </si>
+  <si>
+    <t>justo morbi</t>
+  </si>
+  <si>
+    <t>Integer aliquet, massa id lobortis convallis, tortor risus dapibus augue, vel accumsan tellus nisi eu orci.</t>
+  </si>
+  <si>
+    <t>elementum</t>
+  </si>
+  <si>
+    <t>Fusce consequat. Nulla nisl.</t>
+  </si>
+  <si>
+    <t>leo odio</t>
+  </si>
+  <si>
+    <t>a suscipit</t>
+  </si>
+  <si>
+    <t>Nulla mollis molestie lorem.</t>
+  </si>
+  <si>
+    <t>ut blandit</t>
+  </si>
+  <si>
+    <t>Duis ac nibh.</t>
+  </si>
+  <si>
+    <t>metus sapien</t>
+  </si>
+  <si>
+    <t>Etiam justo. Etiam pretium iaculis justo.</t>
+  </si>
+  <si>
+    <t>eget</t>
+  </si>
+  <si>
+    <t>Maecenas tincidunt lacus at velit.</t>
+  </si>
+  <si>
+    <t>dictumst</t>
+  </si>
+  <si>
+    <t>Fusce lacus purus, aliquet at, feugiat non, pretium quis, lectus. Suspendisse potenti.</t>
+  </si>
+  <si>
+    <t>suspendisse</t>
+  </si>
+  <si>
+    <t>Donec diam neque, vestibulum eget, vulputate ut, ultrices vel, augue.</t>
+  </si>
+  <si>
+    <t>Nunc nisl.</t>
+  </si>
+  <si>
+    <t>libero quis</t>
+  </si>
+  <si>
+    <t>Cras in purus eu magna vulputate luctus.</t>
+  </si>
+  <si>
+    <t>ipsum</t>
+  </si>
+  <si>
+    <t>Vivamus vestibulum sagittis sapien. Cum sociis natoque penatibus et magnis dis parturient montes, nascetur ridiculus mus.</t>
+  </si>
+  <si>
+    <t>elementum eu</t>
+  </si>
+  <si>
+    <t>Aliquam sit amet diam in magna bibendum imperdiet.</t>
+  </si>
+  <si>
+    <t>sit</t>
+  </si>
+  <si>
+    <t>Vestibulum rutrum rutrum neque. Aenean auctor gravida sem.</t>
+  </si>
+  <si>
+    <t>In hac habitasse platea dictumst. Aliquam augue quam, sollicitudin vitae, consectetuer eget, rutrum at, lorem.</t>
+  </si>
+  <si>
+    <t>sapien</t>
+  </si>
+  <si>
+    <t>Quisque ut erat. Curabitur gravida nisi at nibh.</t>
+  </si>
+  <si>
+    <t>felis</t>
+  </si>
+  <si>
+    <t>Morbi ut odio.</t>
+  </si>
+  <si>
+    <t>orci luctus</t>
+  </si>
+  <si>
+    <t>Nunc rhoncus dui vel sem. Sed sagittis.</t>
+  </si>
+  <si>
+    <t>integer tincidunt</t>
+  </si>
+  <si>
+    <t>Donec dapibus.</t>
+  </si>
+  <si>
+    <t>porttitor pede</t>
+  </si>
+  <si>
+    <t>Vivamus vestibulum sagittis sapien.</t>
+  </si>
+  <si>
+    <t>quam a</t>
+  </si>
+  <si>
+    <t>In hac habitasse platea dictumst. Morbi vestibulum, velit id pretium iaculis, diam erat fermentum justo, nec condimentum neque sapien placerat ante.</t>
+  </si>
+  <si>
+    <t>vel</t>
+  </si>
+  <si>
+    <t>Nam dui.</t>
+  </si>
+  <si>
+    <t>volutpat</t>
+  </si>
+  <si>
+    <t>Sed accumsan felis.</t>
+  </si>
+  <si>
+    <t>Quisque porta volutpat erat.</t>
+  </si>
+  <si>
+    <t>potenti</t>
+  </si>
+  <si>
+    <t>In eleifend quam a odio. In hac habitasse platea dictumst.</t>
+  </si>
+  <si>
+    <t>Sed accumsan felis. Ut at dolor quis odio consequat varius.</t>
+  </si>
+  <si>
+    <t>sit amet</t>
+  </si>
+  <si>
+    <t>suspendisse potenti</t>
+  </si>
+  <si>
+    <t>Duis bibendum, felis sed interdum venenatis, turpis enim blandit mi, in porttitor pede justo eu massa. Donec dapibus.</t>
+  </si>
+  <si>
+    <t>convallis tortor</t>
+  </si>
+  <si>
+    <t>justo etiam</t>
+  </si>
+  <si>
+    <t>Fusce congue, diam id ornare imperdiet, sapien urna pretium nisl, ut volutpat sapien arcu sed augue. Aliquam erat volutpat.</t>
+  </si>
+  <si>
+    <t>Vivamus vel nulla eget eros elementum pellentesque.</t>
+  </si>
+  <si>
+    <t>bibendum</t>
+  </si>
+  <si>
+    <t>In blandit ultrices enim. Lorem ipsum dolor sit amet, consectetuer adipiscing elit.</t>
+  </si>
+  <si>
+    <t>pellentesque</t>
+  </si>
+  <si>
+    <t>Maecenas ut massa quis augue luctus tincidunt. Nulla mollis molestie lorem.</t>
+  </si>
+  <si>
+    <t>pede</t>
+  </si>
+  <si>
+    <t>Morbi a ipsum. Integer a nibh.</t>
+  </si>
+  <si>
+    <t>quis</t>
+  </si>
+  <si>
+    <t>Praesent blandit.</t>
+  </si>
+  <si>
+    <t>Integer tincidunt ante vel ipsum. Praesent blandit lacinia erat.</t>
+  </si>
+  <si>
+    <t>ut nunc</t>
+  </si>
+  <si>
+    <t>quam sollicitudin</t>
+  </si>
+  <si>
+    <t>Praesent lectus.</t>
+  </si>
+  <si>
+    <t>dictumst morbi</t>
+  </si>
+  <si>
+    <t>nulla sed</t>
+  </si>
+  <si>
+    <t>Etiam vel augue. Vestibulum rutrum rutrum neque.</t>
+  </si>
+  <si>
+    <t>nullam</t>
+  </si>
+  <si>
+    <t>Pellentesque at nulla.</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>lectus vestibulum</t>
+  </si>
+  <si>
+    <t>Morbi a ipsum.</t>
+  </si>
+  <si>
+    <t>lacus morbi</t>
+  </si>
+  <si>
+    <t>Maecenas tristique, est et tempus semper, est quam pharetra magna, ac consequat metus sapien ut nunc.</t>
+  </si>
+  <si>
+    <t>lectus aliquam</t>
+  </si>
+  <si>
+    <t>Morbi non lectus. Aliquam sit amet diam in magna bibendum imperdiet.</t>
+  </si>
+  <si>
+    <t>venenatis tristique</t>
+  </si>
+  <si>
+    <t>Vestibulum rutrum rutrum neque.</t>
+  </si>
+  <si>
+    <t>felis donec</t>
+  </si>
+  <si>
+    <t>Curabitur gravida nisi at nibh. In hac habitasse platea dictumst.</t>
+  </si>
+  <si>
+    <t>mauris sit</t>
+  </si>
+  <si>
+    <t>Morbi porttitor lorem id ligula. Suspendisse ornare consequat lectus.</t>
+  </si>
+  <si>
+    <t>ante vel</t>
+  </si>
+  <si>
+    <t>blandit non</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>pharetra</t>
+  </si>
+  <si>
+    <t>Integer pede justo, lacinia eget, tincidunt eget, tempus vel, pede.</t>
+  </si>
+  <si>
+    <t>laoreet ut</t>
+  </si>
+  <si>
+    <t>Phasellus in felis. Donec semper sapien a libero.</t>
+  </si>
+  <si>
+    <t>viverra</t>
+  </si>
+  <si>
+    <t>Pellentesque eget nunc. Donec quis orci eget orci vehicula condimentum.</t>
+  </si>
+  <si>
+    <t>id sapien</t>
+  </si>
+  <si>
+    <t>Quisque arcu libero, rutrum ac, lobortis vel, dapibus at, diam.</t>
+  </si>
+  <si>
+    <t>sollicitudin ut</t>
+  </si>
+  <si>
+    <t>augue vestibulum</t>
+  </si>
+  <si>
+    <t>Mauris sit amet eros. Suspendisse accumsan tortor quis turpis.</t>
+  </si>
+  <si>
+    <t>elit</t>
+  </si>
+  <si>
+    <t>Nulla justo.</t>
+  </si>
+  <si>
+    <t>congue elementum</t>
+  </si>
+  <si>
+    <t>amet</t>
+  </si>
+  <si>
+    <t> Mauris viverra diam vitae quam. Suspendisse potenti.</t>
+  </si>
+  <si>
+    <t>est quam</t>
+  </si>
+  <si>
+    <t>Nam nulla. Integer pede justo, lacinia eget, tincidunt eget, tempus vel, pede.</t>
+  </si>
+  <si>
+    <t>rutrum rutrum</t>
+  </si>
+  <si>
+    <t>Fusce posuere felis sed lacus.</t>
+  </si>
+  <si>
+    <t>Vivamus metus arcu, adipiscing molestie, hendrerit at, vulputate vitae, nisl. Aenean lectus.</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>Maecenas ut massa quis augue luctus tincidunt.</t>
+  </si>
+  <si>
+    <t>luctus</t>
+  </si>
+  <si>
+    <t>Maecenas pulvinar lobortis est.</t>
+  </si>
+  <si>
+    <t>morbi</t>
+  </si>
+  <si>
+    <t>sagittis dui</t>
+  </si>
+  <si>
+    <t>Fusce consequat.</t>
+  </si>
+  <si>
+    <t>ipsum dolor</t>
+  </si>
+  <si>
+    <t>Mauris ullamcorper purus sit amet nulla.</t>
+  </si>
+  <si>
+    <t>potenti cras</t>
+  </si>
+  <si>
+    <t>Quisque erat eros, viverra eget, congue eget, semper rutrum, nulla. Nunc purus.</t>
+  </si>
+  <si>
+    <t>sapien placerat</t>
+  </si>
+  <si>
+    <t>Integer aliquet, massa id lobortis convallis, tortor risus dapibus augue, vel accumsan tellus nisi eu orci. Mauris lacinia sapien quis libero.</t>
+  </si>
+  <si>
+    <t>diam erat</t>
+  </si>
+  <si>
+    <t>Integer ac neque. Duis bibendum.</t>
+  </si>
+  <si>
+    <t>ante</t>
+  </si>
+  <si>
+    <t>Duis mattis egestas metus.</t>
+  </si>
+  <si>
+    <t>vestibulum</t>
+  </si>
+  <si>
+    <t>Nunc nisl. Duis bibendum, felis sed interdum venenatis, turpis enim blandit mi, in porttitor pede justo eu massa.</t>
+  </si>
+  <si>
+    <t>nisl</t>
+  </si>
+  <si>
+    <t>Praesent lectus. Vestibulum quam sapien, varius ut, blandit non, interdum in, ante.</t>
+  </si>
+  <si>
+    <t>Nulla tempus. Vivamus in felis eu sapien cursus vestibulum.</t>
+  </si>
+  <si>
+    <t>semper</t>
+  </si>
+  <si>
+    <t>Donec quis orci eget orci vehicula condimentum. Curabitur in libero ut massa volutpat convallis.</t>
+  </si>
+  <si>
+    <t>Curabitur in libero ut massa volutpat convallis.</t>
+  </si>
+  <si>
+    <t>turpis eget</t>
+  </si>
+  <si>
+    <t>Nullam orci pede, venenatis non, sodales sed, tincidunt eu, felis. Fusce posuere felis sed lacus.</t>
+  </si>
+  <si>
+    <t>nam congue</t>
+  </si>
+  <si>
+    <t>nec</t>
+  </si>
+  <si>
+    <t>Curabitur in libero ut massa volutpat convallis. Morbi odio odio, elementum eu, interdum eu, tincidunt in, leo.</t>
+  </si>
+  <si>
+    <t>Aenean sit amet justo. Morbi ut odio.</t>
+  </si>
+  <si>
+    <t>luctus et</t>
+  </si>
+  <si>
+    <t>Aenean sit amet justo.</t>
+  </si>
+  <si>
+    <t>sociis natoque</t>
+  </si>
+  <si>
+    <t>cras pellentesque</t>
+  </si>
+  <si>
+    <t>sed nisl</t>
+  </si>
+  <si>
+    <t>nec dui</t>
+  </si>
+  <si>
+    <t>Nulla ac enim. In tempor, turpis nec euismod scelerisque, quam turpis adipiscing lorem, vitae mattis nibh ligula nec sem.</t>
+  </si>
+  <si>
+    <t>Cras mi pede, malesuada in, imperdiet et, commodo vulputate, justo. In blandit ultrices enim.</t>
+  </si>
+  <si>
+    <t>metus</t>
+  </si>
+  <si>
+    <t>augue aliquam</t>
+  </si>
+  <si>
+    <t>Suspendisse accumsan tortor quis turpis. Sed ante.</t>
+  </si>
+  <si>
+    <t>enim lorem</t>
+  </si>
+  <si>
+    <t>Etiam faucibus cursus urna.</t>
+  </si>
+  <si>
+    <t>Nulla mollis molestie lorem. Quisque ut erat.</t>
+  </si>
+  <si>
+    <t>venenatis</t>
+  </si>
+  <si>
+    <t>eros</t>
+  </si>
+  <si>
+    <t>dui nec</t>
+  </si>
+  <si>
+    <t>Aliquam sit amet diam in magna bibendum imperdiet. Nullam orci pede, venenatis non, sodales sed, tincidunt eu, felis.</t>
+  </si>
+  <si>
+    <t>In eleifend quam a odio.</t>
+  </si>
+  <si>
+    <t>elit sodales</t>
+  </si>
+  <si>
+    <t>Nulla neque libero, convallis eget, eleifend luctus, ultricies eu, nibh.</t>
+  </si>
+  <si>
+    <t>leo rhoncus</t>
+  </si>
+  <si>
+    <t>Praesent blandit lacinia erat.</t>
+  </si>
+  <si>
+    <t>Donec odio justo, sollicitudin ut, suscipit a, feugiat et, eros. Vestibulum ac est lacinia nisi venenatis tristique.</t>
+  </si>
+  <si>
+    <t>neque</t>
+  </si>
+  <si>
+    <t>Duis bibendum. Morbi non quam nec dui luctus rutrum.</t>
+  </si>
+  <si>
+    <t>accumsan odio</t>
+  </si>
+  <si>
+    <t>Fusce congue, diam id ornare imperdiet, sapien urna pretium nisl, ut volutpat sapien arcu sed augue.</t>
+  </si>
+  <si>
+    <t>ipsum primis</t>
+  </si>
+  <si>
+    <t>Nullam varius. Nulla facilisi.</t>
+  </si>
+  <si>
+    <t>neque aenean</t>
+  </si>
+  <si>
+    <t>Integer ac neque.</t>
+  </si>
+  <si>
+    <t>faucibus orci</t>
+  </si>
+  <si>
+    <t>In est risus, auctor sed, tristique in, tempus sit amet, sem.</t>
+  </si>
+  <si>
+    <t>eget tempus</t>
+  </si>
+  <si>
+    <t>Aliquam augue quam, sollicitudin vitae, consectetuer eget, rutrum at, lorem. Integer tincidunt ante vel ipsum.</t>
+  </si>
+  <si>
+    <t>vivamus in</t>
+  </si>
+  <si>
+    <t>Sed ante. Vivamus tortor.</t>
+  </si>
+  <si>
+    <t>nulla</t>
+  </si>
+  <si>
+    <t>nunc nisl</t>
+  </si>
+  <si>
+    <t>Vestibulum ac est lacinia nisi venenatis tristique. Fusce congue, diam id ornare imperdiet, sapien urna pretium nisl, ut volutpat sapien arcu sed augue.</t>
+  </si>
+  <si>
+    <t>in faucibus</t>
+  </si>
+  <si>
+    <t>duis</t>
+  </si>
+  <si>
+    <t>nisi vulputate</t>
+  </si>
+  <si>
+    <t>Nullam porttitor lacus at turpis. Donec posuere metus vitae ipsum.</t>
+  </si>
+  <si>
+    <t>eleifend quam</t>
+  </si>
+  <si>
+    <t>est donec</t>
+  </si>
+  <si>
+    <t>Vestibulum sed magna at nunc commodo placerat. Praesent blandit.</t>
+  </si>
+  <si>
+    <t>dui</t>
+  </si>
+  <si>
+    <t>et magnis</t>
+  </si>
+  <si>
+    <t>Mauris ullamcorper purus sit amet nulla. Quisque arcu libero, rutrum ac, lobortis vel, dapibus at, diam.</t>
+  </si>
+  <si>
+    <t>ligula</t>
+  </si>
+  <si>
+    <t>vel enim</t>
+  </si>
+  <si>
+    <t>Morbi non quam nec dui luctus rutrum. Nulla tellus.</t>
+  </si>
+  <si>
+    <t>mus vivamus</t>
+  </si>
+  <si>
+    <t>tempus semper</t>
+  </si>
+  <si>
+    <t>In est risus, auctor sed, tristique in, tempus sit amet, sem. Fusce consequat.</t>
+  </si>
+  <si>
+    <t>sed</t>
+  </si>
+  <si>
+    <t>posuere cubilia</t>
+  </si>
+  <si>
+    <t>odio donec</t>
+  </si>
+  <si>
+    <t>ut volutpat</t>
+  </si>
+  <si>
+    <t>Suspendisse ornare consequat lectus.</t>
+  </si>
+  <si>
+    <t>id nisl</t>
+  </si>
+  <si>
+    <t>Etiam faucibus cursus urna. Ut tellus.</t>
+  </si>
+  <si>
+    <t>In hac habitasse platea dictumst. Maecenas ut massa quis augue luctus tincidunt.</t>
+  </si>
+  <si>
+    <t>nec euismod</t>
+  </si>
+  <si>
+    <t>tortor</t>
+  </si>
+  <si>
+    <t>Curabitur gravida nisi at nibh.</t>
+  </si>
+  <si>
+    <t>donec</t>
+  </si>
+  <si>
+    <t>Morbi vestibulum, velit id pretium iaculis, diam erat fermentum justo, nec condimentum neque sapien placerat ante.</t>
+  </si>
+  <si>
+    <t>Phasellus id sapien in sapien iaculis congue.</t>
+  </si>
+  <si>
+    <t>Morbi non lectus.</t>
+  </si>
+  <si>
+    <t>in hac</t>
+  </si>
+  <si>
+    <t>mauris enim</t>
+  </si>
+  <si>
+    <t>bibendum felis</t>
+  </si>
+  <si>
+    <t>Proin risus.</t>
+  </si>
+  <si>
+    <t>sapien arcu</t>
+  </si>
+  <si>
+    <t>In quis justo.</t>
+  </si>
+  <si>
+    <t>dis</t>
+  </si>
+  <si>
+    <t>Morbi sem mauris, laoreet ut, rhoncus aliquet, pulvinar sed, nisl.</t>
+  </si>
+  <si>
+    <t>Vestibulum sed magna at nunc commodo placerat.</t>
+  </si>
+  <si>
+    <t>justo</t>
+  </si>
+  <si>
+    <t>Quisque ut erat.</t>
+  </si>
+  <si>
+    <t>curae nulla</t>
+  </si>
+  <si>
+    <t>proin</t>
+  </si>
+  <si>
+    <t>Donec quis orci eget orci vehicula condimentum.</t>
+  </si>
+  <si>
+    <t>turpis elementum</t>
+  </si>
+  <si>
+    <t> Mauris viverra diam vitae quam.</t>
+  </si>
+  <si>
+    <t>enim</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetuer adipiscing elit. Proin interdum mauris non ligula pellentesque ultrices.</t>
+  </si>
+  <si>
+    <t>iaculis</t>
+  </si>
+  <si>
+    <t>vulputate vitae</t>
+  </si>
+  <si>
+    <t>Pellentesque at nulla. Suspendisse potenti.</t>
+  </si>
+  <si>
+    <t>dolor sit</t>
+  </si>
+  <si>
+    <t>Morbi quis tortor id nulla ultrices aliquet. Maecenas leo odio, condimentum id, luctus nec, molestie sed, justo.</t>
+  </si>
+  <si>
+    <t>eget rutrum</t>
+  </si>
+  <si>
+    <t>pede venenatis</t>
+  </si>
+  <si>
+    <t>Cum sociis natoque penatibus et magnis dis parturient montes, nascetur ridiculus mus. Etiam vel augue.</t>
+  </si>
+  <si>
+    <t>duis mattis</t>
+  </si>
+  <si>
+    <t>Praesent id massa id nisl venenatis lacinia. Aenean sit amet justo.</t>
+  </si>
+  <si>
+    <t>at velit</t>
+  </si>
+  <si>
+    <t>Maecenas tincidunt lacus at velit. Vivamus vel nulla eget eros elementum pellentesque.</t>
+  </si>
+  <si>
+    <t>vitae</t>
+  </si>
+  <si>
+    <t>posuere metus</t>
+  </si>
+  <si>
+    <t>dui proin</t>
+  </si>
+  <si>
+    <t>mauris viverra</t>
+  </si>
+  <si>
+    <t>Morbi quis tortor id nulla ultrices aliquet.</t>
+  </si>
+  <si>
+    <t>interdum in</t>
+  </si>
+  <si>
+    <t>Nam dui. Proin leo odio, porttitor id, consequat in, consequat ut, nulla.</t>
+  </si>
+  <si>
+    <t>enim leo</t>
+  </si>
+  <si>
+    <t>Maecenas rhoncus aliquam lacus.</t>
+  </si>
+  <si>
+    <t>donec ut</t>
+  </si>
+  <si>
+    <t>Cras pellentesque volutpat dui. Maecenas tristique, est et tempus semper, est quam pharetra magna, ac consequat metus sapien ut nunc.</t>
+  </si>
+  <si>
+    <t>eros vestibulum</t>
+  </si>
+  <si>
+    <t>Cras in purus eu magna vulputate luctus. Cum sociis natoque penatibus et magnis dis parturient montes, nascetur ridiculus mus.</t>
+  </si>
+  <si>
+    <t>varius nulla</t>
+  </si>
+  <si>
+    <t>molestie sed</t>
+  </si>
+  <si>
+    <t>nunc vestibulum</t>
+  </si>
+  <si>
+    <t>Donec ut dolor. Morbi vel lectus in quam fringilla rhoncus.</t>
+  </si>
+  <si>
+    <t>tempus vivamus</t>
+  </si>
+  <si>
+    <t>aliquet</t>
+  </si>
+  <si>
+    <t>Suspendisse potenti. Nullam porttitor lacus at turpis.</t>
+  </si>
+  <si>
+    <t>rhoncus dui</t>
+  </si>
+  <si>
+    <t>Duis aliquam convallis nunc.</t>
+  </si>
+  <si>
+    <t>Duis mattis egestas metus. Aenean fermentum.</t>
+  </si>
+  <si>
+    <t>Proin interdum mauris non ligula pellentesque ultrices. Phasellus id sapien in sapien iaculis congue.</t>
+  </si>
+  <si>
+    <t>sem</t>
+  </si>
+  <si>
+    <t>duis aliquam</t>
+  </si>
+  <si>
+    <t>Nullam sit amet turpis elementum ligula vehicula consequat.</t>
+  </si>
+  <si>
+    <t>pharetra magna</t>
+  </si>
+  <si>
+    <t>morbi non</t>
+  </si>
+  <si>
+    <t>iaculis justo</t>
+  </si>
+  <si>
+    <t>Vestibulum ante ipsum primis in faucibus orci luctus et ultrices posuere cubilia Curae; Donec pharetra, magna vestibulum aliquet ultrices, erat tortor sollicitudin mi, sit amet lobortis sapien sapien non mi.</t>
+  </si>
+  <si>
+    <t>vivamus metus</t>
+  </si>
+  <si>
+    <t>morbi ut</t>
+  </si>
+  <si>
+    <t>Nulla tellus. In sagittis dui vel nisl.</t>
+  </si>
+  <si>
+    <t>turpis</t>
+  </si>
+  <si>
+    <t>Duis bibendum, felis sed interdum venenatis, turpis enim blandit mi, in porttitor pede justo eu massa.</t>
+  </si>
+  <si>
+    <t>ultrices erat</t>
+  </si>
+  <si>
+    <t>magna</t>
+  </si>
+  <si>
+    <t>lacinia</t>
+  </si>
+  <si>
+    <t>lectus pellentesque</t>
+  </si>
+  <si>
+    <t>in ante</t>
+  </si>
+  <si>
+    <t>parturient montes</t>
+  </si>
+  <si>
+    <t>Integer pede justo, lacinia eget, tincidunt eget, tempus vel, pede. Morbi porttitor lorem id ligula.</t>
+  </si>
+  <si>
+    <t>Nulla facilisi.</t>
+  </si>
+  <si>
+    <t>dolor</t>
+  </si>
+  <si>
+    <t>pretium iaculis</t>
+  </si>
+  <si>
+    <t>leo</t>
+  </si>
+  <si>
+    <t>Etiam justo.</t>
+  </si>
+  <si>
+    <t>in felis</t>
+  </si>
+  <si>
+    <t>Nunc purus.</t>
+  </si>
+  <si>
+    <t>vestibulum ante</t>
+  </si>
+  <si>
+    <t>Aenean fermentum.</t>
+  </si>
+  <si>
+    <t>Suspendisse ornare consequat lectus. In est risus, auctor sed, tristique in, tempus sit amet, sem.</t>
+  </si>
+  <si>
+    <t>pulvinar nulla</t>
+  </si>
+  <si>
+    <t>lacus</t>
+  </si>
+  <si>
+    <t>volutpat dui</t>
+  </si>
+  <si>
+    <t>orci</t>
+  </si>
+  <si>
+    <t>Pellentesque ultrices mattis odio.</t>
+  </si>
+  <si>
+    <t>quis orci</t>
+  </si>
+  <si>
+    <t>Cras pellentesque volutpat dui.</t>
+  </si>
+  <si>
+    <t>lectus</t>
+  </si>
+  <si>
+    <t>enim blandit</t>
+  </si>
+  <si>
+    <t>Donec posuere metus vitae ipsum.</t>
+  </si>
+  <si>
+    <t>lacinia erat</t>
+  </si>
+  <si>
+    <t>nullam orci</t>
+  </si>
+  <si>
+    <t>In congue. Etiam justo.</t>
+  </si>
+  <si>
+    <t>morbi vel</t>
+  </si>
+  <si>
+    <t>Nullam varius.</t>
+  </si>
+  <si>
+    <t>cubilia curae</t>
+  </si>
+  <si>
+    <t>Morbi sem mauris, laoreet ut, rhoncus aliquet, pulvinar sed, nisl. Nunc rhoncus dui vel sem.</t>
+  </si>
+  <si>
+    <t>interdum eu</t>
+  </si>
+  <si>
+    <t>Quisque arcu libero, rutrum ac, lobortis vel, dapibus at, diam. Nam tristique tortor eu pede.</t>
+  </si>
+  <si>
+    <t>nibh</t>
+  </si>
+  <si>
+    <t>Proin eu mi.</t>
+  </si>
+  <si>
+    <t>semper est</t>
+  </si>
+  <si>
+    <t>Integer non velit.</t>
+  </si>
+  <si>
+    <t>nulla tempus</t>
+  </si>
+  <si>
+    <t>amet diam</t>
+  </si>
+  <si>
+    <t>Vestibulum quam sapien, varius ut, blandit non, interdum in, ante.</t>
+  </si>
+  <si>
+    <t>cras</t>
+  </si>
+  <si>
+    <t>Proin at turpis a pede posuere nonummy. Integer non velit.</t>
+  </si>
+  <si>
+    <t>Aenean lectus. Pellentesque eget nunc.</t>
+  </si>
+  <si>
+    <t>porta</t>
+  </si>
+  <si>
+    <t>faucibus cursus</t>
+  </si>
+  <si>
+    <t>Vestibulum ac est lacinia nisi venenatis tristique.</t>
+  </si>
+  <si>
+    <t>semper sapien</t>
+  </si>
+  <si>
+    <t>accumsan</t>
+  </si>
+  <si>
+    <t>massa id</t>
+  </si>
+  <si>
+    <t>ultrices vel</t>
+  </si>
+  <si>
+    <t>Etiam vel augue.</t>
+  </si>
+  <si>
+    <t>ante nulla</t>
+  </si>
+  <si>
+    <t>Nam ultrices, libero non mattis pulvinar, nulla pede ullamcorper augue, a suscipit nulla elit ac nulla. Sed vel enim sit amet nunc viverra dapibus.</t>
+  </si>
+  <si>
+    <t>malesuada</t>
+  </si>
+  <si>
+    <t>erat volutpat</t>
+  </si>
+  <si>
+    <t>at feugiat</t>
+  </si>
+  <si>
+    <t>Suspendisse potenti. Cras in purus eu magna vulputate luctus.</t>
+  </si>
+  <si>
+    <t>nec condimentum</t>
+  </si>
+  <si>
+    <t>Nam tristique tortor eu pede.</t>
+  </si>
+  <si>
+    <t>felis eu</t>
+  </si>
+  <si>
+    <t>potenti nullam</t>
+  </si>
+  <si>
+    <t>habitasse</t>
+  </si>
+  <si>
+    <t>aliquam sit</t>
+  </si>
+  <si>
+    <t>erat eros</t>
+  </si>
+  <si>
+    <t>Fusce lacus purus, aliquet at, feugiat non, pretium quis, lectus.</t>
+  </si>
+  <si>
+    <t>aenean</t>
+  </si>
+  <si>
+    <t>blandit</t>
+  </si>
+  <si>
+    <t>Nunc purus. Phasellus in felis.</t>
+  </si>
+  <si>
+    <t>proin at</t>
+  </si>
+  <si>
+    <t>In tempor, turpis nec euismod scelerisque, quam turpis adipiscing lorem, vitae mattis nibh ligula nec sem. Duis aliquam convallis nunc.</t>
+  </si>
+  <si>
+    <t>tristique tortor</t>
+  </si>
+  <si>
+    <t>In hac habitasse platea dictumst. Etiam faucibus cursus urna.</t>
+  </si>
+  <si>
+    <t>suscipit</t>
+  </si>
+  <si>
+    <t>Phasellus in felis.</t>
+  </si>
+  <si>
+    <t>lacinia sapien</t>
+  </si>
+  <si>
+    <t>sed vestibulum</t>
+  </si>
+  <si>
+    <t>Etiam pretium iaculis justo.</t>
+  </si>
+  <si>
+    <t>nascetur ridiculus</t>
+  </si>
+  <si>
+    <t>aenean sit</t>
+  </si>
+  <si>
+    <t>Vestibulum quam sapien, varius ut, blandit non, interdum in, ante. Vestibulum ante ipsum primis in faucibus orci luctus et ultrices posuere cubilia Curae; Duis faucibus accumsan odio.</t>
+  </si>
+  <si>
+    <t>velit</t>
+  </si>
+  <si>
+    <t>In sagittis dui vel nisl.</t>
+  </si>
+  <si>
+    <t>pellentesque ultrices</t>
+  </si>
+  <si>
+    <t>Integer non velit. Donec diam neque, vestibulum eget, vulputate ut, ultrices vel, augue.</t>
+  </si>
+  <si>
+    <t>rhoncus</t>
+  </si>
+  <si>
+    <t>aliquam lacus</t>
+  </si>
+  <si>
+    <t>ullamcorper purus</t>
+  </si>
+  <si>
+    <t>Donec semper sapien a libero. Nam dui.</t>
+  </si>
+  <si>
+    <t>consequat in</t>
+  </si>
+  <si>
+    <t>cras non</t>
+  </si>
+  <si>
+    <t>Donec diam neque, vestibulum eget, vulputate ut, ultrices vel, augue. Vestibulum ante ipsum primis in faucibus orci luctus et ultrices posuere cubilia Curae; Donec pharetra, magna vestibulum aliquet ultrices, erat tortor sollicitudin mi, sit amet lobortis sapien sapien non mi.</t>
+  </si>
+  <si>
+    <t>platea dictumst</t>
+  </si>
+  <si>
+    <t>nullam sit</t>
+  </si>
+  <si>
+    <t>etiam vel</t>
+  </si>
+  <si>
+    <t>Integer ac leo.</t>
+  </si>
+  <si>
+    <t>pellentesque at</t>
+  </si>
+  <si>
+    <t>Aenean auctor gravida sem.</t>
+  </si>
+  <si>
+    <t>adipiscing lorem</t>
+  </si>
+  <si>
+    <t>Pellentesque viverra pede ac diam. Cras pellentesque volutpat dui.</t>
+  </si>
+  <si>
+    <t>tincidunt eu</t>
+  </si>
+  <si>
+    <t>Curabitur convallis.</t>
+  </si>
+  <si>
+    <t>elementum ligula</t>
+  </si>
+  <si>
+    <t>a ipsum</t>
+  </si>
+  <si>
+    <t>quam</t>
+  </si>
+  <si>
+    <t>Nam ultrices, libero non mattis pulvinar, nulla pede ullamcorper augue, a suscipit nulla elit ac nulla.</t>
+  </si>
+  <si>
+    <t>lorem integer</t>
+  </si>
+  <si>
+    <t>quisque erat</t>
+  </si>
+  <si>
+    <t>Donec ut dolor.</t>
+  </si>
+  <si>
+    <t>nibh in</t>
+  </si>
+  <si>
+    <t>Curabitur at ipsum ac tellus semper interdum.</t>
+  </si>
+  <si>
+    <t>Nulla ac enim.</t>
+  </si>
+  <si>
+    <t>laoreet</t>
+  </si>
+  <si>
+    <t>Nullam molestie nibh in lectus. Pellentesque at nulla.</t>
+  </si>
+  <si>
+    <t>ante vivamus</t>
+  </si>
+  <si>
+    <t>In quis justo. Maecenas rhoncus aliquam lacus.</t>
+  </si>
+  <si>
+    <t>placerat ante</t>
+  </si>
+  <si>
+    <t>eget elit</t>
+  </si>
+  <si>
+    <t>blandit mi</t>
+  </si>
+  <si>
+    <t>donec semper</t>
+  </si>
+  <si>
+    <t>augue a</t>
+  </si>
+  <si>
+    <t>In congue.</t>
+  </si>
+  <si>
+    <t>lobortis</t>
+  </si>
+  <si>
+    <t>arcu sed</t>
+  </si>
+  <si>
+    <t>Cras non velit nec nisi vulputate nonummy. Maecenas tincidunt lacus at velit.</t>
+  </si>
+  <si>
+    <t>morbi odio</t>
+  </si>
+  <si>
+    <t>volutpat erat</t>
+  </si>
+  <si>
+    <t>tortor eu</t>
+  </si>
+  <si>
+    <t>sed vel</t>
+  </si>
+  <si>
+    <t>Vivamus in felis eu sapien cursus vestibulum.</t>
+  </si>
+  <si>
+    <t>Pellentesque viverra pede ac diam.</t>
+  </si>
+  <si>
+    <t>aliquam augue</t>
+  </si>
+  <si>
+    <t>Suspendisse accumsan tortor quis turpis.</t>
+  </si>
+  <si>
+    <t>libero non</t>
+  </si>
+  <si>
+    <t>Maecenas leo odio, condimentum id, luctus nec, molestie sed, justo.</t>
+  </si>
+  <si>
+    <t>ac tellus</t>
+  </si>
+  <si>
+    <t>auctor gravida</t>
+  </si>
+  <si>
+    <t>etiam</t>
+  </si>
+  <si>
+    <t>Sed vel enim sit amet nunc viverra dapibus. Nulla suscipit ligula in lacus.</t>
+  </si>
+  <si>
+    <t>porttitor id</t>
+  </si>
+  <si>
+    <t>ullamcorper augue</t>
+  </si>
+  <si>
+    <t>Aliquam non mauris.</t>
+  </si>
+  <si>
+    <t>nunc commodo</t>
+  </si>
+  <si>
+    <t>pede justo</t>
+  </si>
+  <si>
+    <t>tempus sit</t>
+  </si>
+  <si>
+    <t>interdum mauris</t>
+  </si>
+  <si>
+    <t>ac nibh</t>
+  </si>
+  <si>
+    <t>at nulla</t>
+  </si>
+  <si>
+    <t>vel pede</t>
+  </si>
+  <si>
+    <t>Ut at dolor quis odio consequat varius. Integer ac leo.</t>
+  </si>
+  <si>
+    <t>non velit</t>
+  </si>
+  <si>
+    <t>Duis consequat dui nec nisi volutpat eleifend. Donec ut dolor.</t>
+  </si>
+  <si>
+    <t>etiam faucibus</t>
+  </si>
+  <si>
+    <t>Phasellus id sapien in sapien iaculis congue. Vivamus metus arcu, adipiscing molestie, hendrerit at, vulputate vitae, nisl.</t>
+  </si>
+  <si>
+    <t>Aenean auctor gravida sem. Praesent id massa id nisl venenatis lacinia.</t>
+  </si>
+  <si>
+    <t>Donec vitae nisi.</t>
+  </si>
+  <si>
+    <t>Quisque erat eros, viverra eget, congue eget, semper rutrum, nulla.</t>
+  </si>
+  <si>
+    <t>sem praesent</t>
+  </si>
+  <si>
+    <t>vitae quam</t>
+  </si>
+  <si>
+    <t>in quis</t>
+  </si>
+  <si>
+    <t>quisque arcu</t>
+  </si>
+  <si>
+    <t>Integer tincidunt ante vel ipsum.</t>
+  </si>
+  <si>
+    <t>mauris non</t>
+  </si>
+  <si>
+    <t>Nam congue, risus semper porta volutpat, quam pede lobortis ligula, sit amet eleifend pede libero quis orci. Nullam molestie nibh in lectus.</t>
+  </si>
+  <si>
+    <t>Cum sociis natoque penatibus et magnis dis parturient montes, nascetur ridiculus mus.</t>
+  </si>
+  <si>
+    <t>est congue</t>
+  </si>
+  <si>
+    <t>nulla ac</t>
+  </si>
+  <si>
+    <t>nam tristique</t>
+  </si>
+  <si>
+    <t>Duis aliquam convallis nunc. Proin at turpis a pede posuere nonummy.</t>
+  </si>
+  <si>
+    <t>adipiscing</t>
+  </si>
+  <si>
+    <t>nulla eget</t>
+  </si>
+  <si>
+    <t>Morbi odio odio, elementum eu, interdum eu, tincidunt in, leo.</t>
+  </si>
+  <si>
+    <t>a libero</t>
+  </si>
+  <si>
+    <t>Nulla tempus.</t>
+  </si>
+  <si>
+    <t>interdum</t>
+  </si>
+  <si>
+    <t>elit proin</t>
+  </si>
+  <si>
+    <t>dapibus</t>
+  </si>
+  <si>
+    <t>Nulla neque libero, convallis eget, eleifend luctus, ultricies eu, nibh. Quisque id justo sit amet sapien dignissim vestibulum.</t>
+  </si>
+  <si>
+    <t>placerat</t>
+  </si>
+  <si>
+    <t>Mauris enim leo, rhoncus sed, vestibulum sit amet, cursus id, turpis. Integer aliquet, massa id lobortis convallis, tortor risus dapibus augue, vel accumsan tellus nisi eu orci.</t>
+  </si>
+  <si>
+    <t>magnis</t>
+  </si>
+  <si>
+    <t>Nulla nisl.</t>
+  </si>
+  <si>
+    <t>mauris</t>
+  </si>
+  <si>
+    <t>Donec odio justo, sollicitudin ut, suscipit a, feugiat et, eros.</t>
+  </si>
+  <si>
+    <t>nec nisi</t>
+  </si>
+  <si>
+    <t>dolor quis</t>
+  </si>
+  <si>
+    <t>Vivamus tortor.</t>
+  </si>
+  <si>
+    <t>accumsan felis</t>
+  </si>
+  <si>
+    <t>in magna</t>
+  </si>
+  <si>
+    <t>lorem id</t>
+  </si>
+  <si>
+    <t> Duis faucibus accumsan odio. Curabitur convallis.</t>
+  </si>
+  <si>
+    <t>Etiam pretium iaculis justo. In hac habitasse platea dictumst.</t>
+  </si>
+  <si>
+    <t>lorem</t>
+  </si>
+  <si>
+    <t>maecenas leo</t>
+  </si>
+  <si>
+    <t>Morbi odio odio, elementum eu, interdum eu, tincidunt in, leo. Maecenas pulvinar lobortis est.</t>
   </si>
   <si>
     <t>Test Scenario</t>
@@ -416,6 +2082,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -426,42 +2095,42 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="2" t="n">
         <v>12345</v>
       </c>
     </row>
@@ -489,9 +2158,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -524,25 +2196,25 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -553,60 +2225,60 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="2" t="n">
         <v>1234</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="2" t="n">
         <v>234</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="2" t="n">
         <v>3423</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -630,15 +2302,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -650,37 +2324,39 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="2" t="n">
         <v>123</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="2" t="s">
         <v>35</v>
       </c>
     </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -705,9 +2381,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -722,46 +2399,46 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -789,12 +2466,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -818,82 +2496,82 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="2" t="n">
         <v>3354364</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="2" t="n">
         <v>342</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="2" t="n">
         <v>3463453</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="2" t="s">
         <v>62</v>
       </c>
     </row>
@@ -917,83 +2595,4176 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:C501"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.530612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="213.107142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="B155" s="0" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="B158" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="B159" s="0" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="B160" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="B161" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C161" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B164" s="0" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="B166" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="B167" s="0" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="B168" s="0" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="B169" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="B170" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="B171" s="0" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="B172" s="0" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B173" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C173" s="0" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B174" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="B175" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B176" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="B177" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="B178" s="0" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="B179" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B180" s="0" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="B181" s="0" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="B182" s="0" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="B183" s="0" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B184" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="B185" s="0" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="B186" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="B187" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="B188" s="0" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="B189" s="0" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="B190" s="0" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B191" s="0" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="B192" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="B193" s="0" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="B194" s="0" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="B195" s="0" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="B196" s="0" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="B197" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="B198" s="0" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="B199" s="0" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="B200" s="0" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="B201" s="0" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B202" s="0" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="B203" s="0" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="B204" s="0" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="B205" s="0" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="B206" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C206" s="0" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="B207" s="0" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="B208" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="B209" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="B210" s="0" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="B211" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="B212" s="0" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="B213" s="0" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="B214" s="0" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B215" s="0" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="B216" s="0" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="B217" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B218" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="B219" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="B220" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="B221" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="B222" s="0" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="B223" s="0" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B224" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B225" s="0" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="B226" s="0" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="B227" s="0" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="B228" s="0" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B229" s="0" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="B230" s="0" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="B231" s="0" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="B232" s="0" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="B233" s="0" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="B234" s="0" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="B235" s="0" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="B236" s="0" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B237" s="0" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B238" s="0" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="B239" s="0" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="B240" s="0" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B241" s="0" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="B242" s="0" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B243" s="0" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="B244" s="0" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="B245" s="0" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="B246" s="0" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="B247" s="0" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="B248" s="0" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="B249" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="B250" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B251" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="B252" s="0" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="B253" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="B254" s="0" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B255" s="0" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="B256" s="0" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="B257" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="B258" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C258" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="B259" s="0" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="B260" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="B261" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="B262" s="0" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="B263" s="0" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="B264" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="B265" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="B266" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="B267" s="0" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="B268" s="0" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="B269" s="0" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B270" s="0" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B271" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="B272" s="0" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="B273" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B274" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="B275" s="0" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="B276" s="0" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="B277" s="0" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="B278" s="0" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="B279" s="0" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="B280" s="0" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="B281" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="B282" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C282" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B283" s="0" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="B284" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="B285" s="0" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="B286" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="B287" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="B288" s="0" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="B289" s="0" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="B290" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="B291" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B292" s="0" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B293" s="0" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="B294" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="B295" s="0" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="B296" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B297" s="0" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="B298" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B299" s="0" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="B300" s="0" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="B301" s="0" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="B302" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="B303" s="0" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="B304" s="0" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="B305" s="0" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="B306" s="0" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="B307" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="B308" s="0" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="B309" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="B310" s="0" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="B311" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="B312" s="0" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="B313" s="0" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="B314" s="0" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="B315" s="0" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="B316" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="B317" s="0" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="B318" s="0" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="B319" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="B320" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B321" s="0" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="B322" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="B323" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="B324" s="0" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="B325" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="B326" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="B327" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="B328" s="0" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="B329" s="0" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="B330" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="B331" s="0" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B332" s="0" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="B333" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="B334" s="0" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="B335" s="0" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B336" s="0" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="B337" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="B338" s="0" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B339" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="B340" s="0" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="B341" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="B342" s="0" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B343" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B344" s="0" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="B345" s="0" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="B346" s="0" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="B347" s="0" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="B348" s="0" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="B349" s="0" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="B350" s="0" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B351" s="0" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="B352" s="0" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="B353" s="0" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="B354" s="0" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="B355" s="0" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="B356" s="0" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="B357" s="0" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="B358" s="0" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="B359" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="B360" s="0" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="B361" s="0" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="B362" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B363" s="0" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="B364" s="0" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="B365" s="0" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="B366" s="0" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="B367" s="0" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="B368" s="0" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="B369" s="0" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="B370" s="0" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="B371" s="0" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B372" s="0" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B373" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="B374" s="0" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="B375" s="0" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="B376" s="0" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="B377" s="0" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="B378" s="0" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="B379" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="B380" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A381" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="B381" s="0" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A382" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="B382" s="0" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="B383" s="0" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="B384" s="0" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="B385" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="B386" s="0" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="B387" s="0" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="B388" s="0" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="B389" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A390" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="B390" s="0" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A391" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="B391" s="0" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A392" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="B392" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A393" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="B393" s="0" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A394" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="B394" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A395" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="B395" s="0" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A396" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="B396" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A397" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="B397" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A398" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="B398" s="0" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A399" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="B399" s="0" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A400" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B400" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="B401" s="0" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A402" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="B402" s="0" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="B403" s="0" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B404" s="0" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B405" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B406" s="0" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="B407" s="0" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="B408" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="B409" s="0" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="B410" s="0" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="B411" s="0" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="B412" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="B413" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="B414" s="0" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="B415" s="0" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="B416" s="0" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="B417" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A418" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B418" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A419" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="B419" s="0" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A420" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="B420" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C420" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="B421" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="B422" s="0" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A423" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="B423" s="0" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A424" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="B424" s="0" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="B425" s="0" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="B426" s="0" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="B427" s="0" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A428" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="B428" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="B429" s="0" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="B430" s="0" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="B431" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A432" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B432" s="0" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="B433" s="0" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A434" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="B434" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="B435" s="0" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="B436" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B437" s="0" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A438" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B438" s="0" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A439" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="B439" s="0" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A440" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="B440" s="0" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A441" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B441" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A442" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B442" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C442" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A443" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B443" s="0" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A444" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="B444" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A445" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="B445" s="0" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A446" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="B446" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A447" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B447" s="0" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A448" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="B448" s="0" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A449" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="B449" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A450" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B450" s="0" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A451" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="B451" s="0" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A452" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="B452" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A453" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="B453" s="0" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A454" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="B454" s="0" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A455" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="B455" s="0" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A456" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B456" s="0" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A457" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="B457" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A458" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="B458" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A459" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="B459" s="0" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A460" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="B460" s="0" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A461" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="B461" s="0" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A462" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="B462" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A463" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="B463" s="0" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A464" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="B464" s="0" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A465" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="B465" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A466" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B466" s="0" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A467" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="B467" s="0" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A468" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="B468" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A469" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="B469" s="0" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A470" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="B470" s="0" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A471" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="B471" s="0" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A472" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B472" s="0" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A473" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="B473" s="0" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A474" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="B474" s="0" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A475" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="B475" s="0" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A476" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="B476" s="0" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A477" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="B477" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A478" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B478" s="0" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A479" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="B479" s="0" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A480" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B480" s="0" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A481" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="B481" s="0" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A482" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="B482" s="0" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A483" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="B483" s="0" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A484" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="B484" s="0" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A485" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="B485" s="0" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A486" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="B486" s="0" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A487" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="B487" s="0" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A488" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B488" s="0" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A489" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="B489" s="0" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A490" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B490" s="0" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A491" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="B491" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A492" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="B492" s="0" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A493" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="B493" s="0" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A494" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="B494" s="0" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A495" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B495" s="0" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A496" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="B496" s="0" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A497" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="B497" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C497" s="0" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A498" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B498" s="0" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A499" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="B499" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A500" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="B500" s="0" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A501" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="B501" s="0" t="s">
+        <v>617</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="2" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>63</v>
+        <v>618</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>64</v>
+        <v>619</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>65</v>
+        <v>620</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>66</v>
+        <v>621</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>67</v>
+        <v>622</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>68</v>
+        <v>623</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>69</v>
+        <v>624</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>70</v>
-      </c>
+        <v>625</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0"/>
+      <c r="E2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>72</v>
-      </c>
+        <v>626</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0"/>
+      <c r="E4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>74</v>
-      </c>
+        <v>628</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0"/>
+      <c r="E6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>76</v>
-      </c>
+        <v>630</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0"/>
+      <c r="E8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>77</v>
+        <v>632</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>78</v>
-      </c>
+        <v>633</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>79</v>
-      </c>
+        <v>634</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>80</v>
+        <v>635</v>
       </c>
     </row>
   </sheetData>
